--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Jam2-F11r.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Jam2-F11r.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>91.47356466666668</v>
+        <v>113.5893336666667</v>
       </c>
       <c r="H2">
-        <v>274.420694</v>
+        <v>340.768001</v>
       </c>
       <c r="I2">
-        <v>0.7914295280104694</v>
+        <v>0.8306211829777892</v>
       </c>
       <c r="J2">
-        <v>0.7914295280104694</v>
+        <v>0.8306211829777892</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>21.870458</v>
+        <v>14.82137566666667</v>
       </c>
       <c r="N2">
-        <v>65.611374</v>
+        <v>44.464127</v>
       </c>
       <c r="O2">
-        <v>0.9662106525726075</v>
+        <v>0.9193095050964014</v>
       </c>
       <c r="P2">
-        <v>0.9662106525726075</v>
+        <v>0.9193095050964012</v>
       </c>
       <c r="Q2">
-        <v>2000.568754152617</v>
+        <v>1683.550186000014</v>
       </c>
       <c r="R2">
-        <v>18005.11878737356</v>
+        <v>15151.95167400013</v>
       </c>
       <c r="S2">
-        <v>0.7646876407242263</v>
+        <v>0.7635979486458989</v>
       </c>
       <c r="T2">
-        <v>0.7646876407242263</v>
+        <v>0.7635979486458987</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>91.47356466666668</v>
+        <v>113.5893336666667</v>
       </c>
       <c r="H3">
-        <v>274.420694</v>
+        <v>340.768001</v>
       </c>
       <c r="I3">
-        <v>0.7914295280104694</v>
+        <v>0.8306211829777892</v>
       </c>
       <c r="J3">
-        <v>0.7914295280104694</v>
+        <v>0.8306211829777892</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>0.577871</v>
       </c>
       <c r="O3">
-        <v>0.008509882997005752</v>
+        <v>0.0119476607067887</v>
       </c>
       <c r="P3">
-        <v>0.008509882997005754</v>
+        <v>0.0119476607067887</v>
       </c>
       <c r="Q3">
-        <v>17.61997342916378</v>
+        <v>21.87999394509678</v>
       </c>
       <c r="R3">
-        <v>158.579760862474</v>
+        <v>196.919945505871</v>
       </c>
       <c r="S3">
-        <v>0.006734972683744581</v>
+        <v>0.009923980070090078</v>
       </c>
       <c r="T3">
-        <v>0.006734972683744582</v>
+        <v>0.009923980070090077</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>91.47356466666668</v>
+        <v>113.5893336666667</v>
       </c>
       <c r="H4">
-        <v>274.420694</v>
+        <v>340.768001</v>
       </c>
       <c r="I4">
-        <v>0.7914295280104694</v>
+        <v>0.8306211829777892</v>
       </c>
       <c r="J4">
-        <v>0.7914295280104694</v>
+        <v>0.8306211829777892</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.572208</v>
+        <v>1.108292</v>
       </c>
       <c r="N4">
-        <v>1.716624</v>
+        <v>3.324876</v>
       </c>
       <c r="O4">
-        <v>0.02527946443038672</v>
+        <v>0.06874283419681</v>
       </c>
       <c r="P4">
-        <v>0.02527946443038672</v>
+        <v>0.06874283419680997</v>
       </c>
       <c r="Q4">
-        <v>52.34190549078401</v>
+        <v>125.8901497880973</v>
       </c>
       <c r="R4">
-        <v>471.0771494170561</v>
+        <v>1133.011348092876</v>
       </c>
       <c r="S4">
-        <v>0.02000691460249841</v>
+        <v>0.05709925426180035</v>
       </c>
       <c r="T4">
-        <v>0.02000691460249841</v>
+        <v>0.05709925426180032</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>62.82621699999999</v>
       </c>
       <c r="I5">
-        <v>0.181190866265331</v>
+        <v>0.1531387528565491</v>
       </c>
       <c r="J5">
-        <v>0.181190866265331</v>
+        <v>0.1531387528565491</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>21.870458</v>
+        <v>14.82137566666667</v>
       </c>
       <c r="N5">
-        <v>65.611374</v>
+        <v>44.464127</v>
       </c>
       <c r="O5">
-        <v>0.9662106525726075</v>
+        <v>0.9193095050964014</v>
       </c>
       <c r="P5">
-        <v>0.9662106525726075</v>
+        <v>0.9193095050964012</v>
       </c>
       <c r="Q5">
-        <v>458.0127133991286</v>
+        <v>310.3903212908399</v>
       </c>
       <c r="R5">
-        <v>4122.114420592157</v>
+        <v>2793.512891617559</v>
       </c>
       <c r="S5">
-        <v>0.1750685451344215</v>
+        <v>0.1407819110996343</v>
       </c>
       <c r="T5">
-        <v>0.1750685451344215</v>
+        <v>0.1407819110996343</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>62.82621699999999</v>
       </c>
       <c r="I6">
-        <v>0.181190866265331</v>
+        <v>0.1531387528565491</v>
       </c>
       <c r="J6">
-        <v>0.181190866265331</v>
+        <v>0.1531387528565491</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>0.577871</v>
       </c>
       <c r="O6">
-        <v>0.008509882997005752</v>
+        <v>0.0119476607067887</v>
       </c>
       <c r="P6">
-        <v>0.008509882997005754</v>
+        <v>0.0119476607067887</v>
       </c>
       <c r="Q6">
         <v>4.033938760445222</v>
@@ -818,10 +818,10 @@
         <v>36.305448844007</v>
       </c>
       <c r="S6">
-        <v>0.001541913072044084</v>
+        <v>0.001829649860190818</v>
       </c>
       <c r="T6">
-        <v>0.001541913072044084</v>
+        <v>0.001829649860190817</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>62.82621699999999</v>
       </c>
       <c r="I7">
-        <v>0.181190866265331</v>
+        <v>0.1531387528565491</v>
       </c>
       <c r="J7">
-        <v>0.181190866265331</v>
+        <v>0.1531387528565491</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.572208</v>
+        <v>1.108292</v>
       </c>
       <c r="N7">
-        <v>1.716624</v>
+        <v>3.324876</v>
       </c>
       <c r="O7">
-        <v>0.02527946443038672</v>
+        <v>0.06874283419681</v>
       </c>
       <c r="P7">
-        <v>0.02527946443038672</v>
+        <v>0.06874283419680997</v>
       </c>
       <c r="Q7">
-        <v>11.983221325712</v>
+        <v>23.20993123045467</v>
       </c>
       <c r="R7">
-        <v>107.848991931408</v>
+        <v>208.889381074092</v>
       </c>
       <c r="S7">
-        <v>0.004580408058865393</v>
+        <v>0.01052719189672402</v>
       </c>
       <c r="T7">
-        <v>0.004580408058865392</v>
+        <v>0.01052719189672401</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>3.164539666666667</v>
+        <v>2.220865666666667</v>
       </c>
       <c r="H8">
-        <v>9.493619000000001</v>
+        <v>6.662597</v>
       </c>
       <c r="I8">
-        <v>0.02737960572419959</v>
+        <v>0.01624006416566169</v>
       </c>
       <c r="J8">
-        <v>0.02737960572419959</v>
+        <v>0.01624006416566169</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>21.870458</v>
+        <v>14.82137566666667</v>
       </c>
       <c r="N8">
-        <v>65.611374</v>
+        <v>44.464127</v>
       </c>
       <c r="O8">
-        <v>0.9662106525726075</v>
+        <v>0.9193095050964014</v>
       </c>
       <c r="P8">
-        <v>0.9662106525726075</v>
+        <v>0.9193095050964012</v>
       </c>
       <c r="Q8">
-        <v>69.20993186916733</v>
+        <v>32.91628435086878</v>
       </c>
       <c r="R8">
-        <v>622.889386822506</v>
+        <v>296.246559157819</v>
       </c>
       <c r="S8">
-        <v>0.02645446671395959</v>
+        <v>0.01492964535086826</v>
       </c>
       <c r="T8">
-        <v>0.02645446671395959</v>
+        <v>0.01492964535086825</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>3.164539666666667</v>
+        <v>2.220865666666667</v>
       </c>
       <c r="H9">
-        <v>9.493619000000001</v>
+        <v>6.662597</v>
       </c>
       <c r="I9">
-        <v>0.02737960572419959</v>
+        <v>0.01624006416566169</v>
       </c>
       <c r="J9">
-        <v>0.02737960572419959</v>
+        <v>0.01624006416566169</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>0.577871</v>
       </c>
       <c r="O9">
-        <v>0.008509882997005752</v>
+        <v>0.0119476607067887</v>
       </c>
       <c r="P9">
-        <v>0.008509882997005754</v>
+        <v>0.0119476607067887</v>
       </c>
       <c r="Q9">
-        <v>0.6095652339054445</v>
+        <v>0.4277912878874444</v>
       </c>
       <c r="R9">
-        <v>5.486087105149001</v>
+        <v>3.850121590987</v>
       </c>
       <c r="S9">
-        <v>0.0002329972412170875</v>
+        <v>0.0001940307765078034</v>
       </c>
       <c r="T9">
-        <v>0.0002329972412170875</v>
+        <v>0.0001940307765078034</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>3.164539666666667</v>
+        <v>2.220865666666667</v>
       </c>
       <c r="H10">
-        <v>9.493619000000001</v>
+        <v>6.662597</v>
       </c>
       <c r="I10">
-        <v>0.02737960572419959</v>
+        <v>0.01624006416566169</v>
       </c>
       <c r="J10">
-        <v>0.02737960572419959</v>
+        <v>0.01624006416566169</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.572208</v>
+        <v>1.108292</v>
       </c>
       <c r="N10">
-        <v>1.716624</v>
+        <v>3.324876</v>
       </c>
       <c r="O10">
-        <v>0.02527946443038672</v>
+        <v>0.06874283419681</v>
       </c>
       <c r="P10">
-        <v>0.02527946443038672</v>
+        <v>0.06874283419680997</v>
       </c>
       <c r="Q10">
-        <v>1.810774913584</v>
+        <v>2.461367651441333</v>
       </c>
       <c r="R10">
-        <v>16.296974222256</v>
+        <v>22.152308862972</v>
       </c>
       <c r="S10">
-        <v>0.0006921417690229162</v>
+        <v>0.001116388038285638</v>
       </c>
       <c r="T10">
-        <v>0.0006921417690229162</v>
+        <v>0.001116388038285637</v>
       </c>
     </row>
   </sheetData>
